--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>829010.4751406625</v>
+        <v>821384.0253129122</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564198</v>
+        <v>189902.9539564204</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728817</v>
+        <v>9102620.618728805</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.00019236662607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>146.4340874029168</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>38.39834678541102</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>240.8460141132884</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>42.94935504550583</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>119.5125823915305</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>179.6619838557947</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>131.9585108202254</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1224,7 +1224,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H9" t="n">
         <v>104.3883541553076</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>134.6751203255735</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>295.9408816142891</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1458,7 +1458,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G12" t="n">
         <v>136.5310119231965</v>
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1534,22 +1534,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>295.9408816142891</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1695,7 +1695,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.5310119231965</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.34508049624269</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>131.8179123113441</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -1850,19 +1850,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>376.184863643924</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>279.8432403025653</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>104.5113366705979</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>384.732060920542</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,19 +2126,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>101.7806877295492</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>134.8844947709055</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>89.63474905583735</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,16 +2363,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>141.7537327915053</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2533,16 +2533,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>162.3364906735232</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,16 +2561,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,28 +2600,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>199.3355115125533</v>
       </c>
       <c r="Y26" t="n">
-        <v>311.4936872159404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2719,22 +2719,22 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>17.36390763391859</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>334.58170967322</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>191.4308343986307</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>63.57678144609365</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="32">
@@ -3074,22 +3074,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>81.1220065286378</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>159.4362523135813</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>101.7806877295488</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3241,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>94.63926978363978</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3266,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>169.3575929423584</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>26.94389492651113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3326,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>28.10115714452277</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,16 +3503,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>64.46452822738385</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3548,16 +3548,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3718,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>189.596843649344</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>153.5271835984415</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3746,13 +3746,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>376.1848636439243</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>18.08991703025488</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>101.780687729549</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>85.75453794527442</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>345.2763539189825</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.211488636581</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>43.31785343913925</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1700.340352117536</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C2" t="n">
-        <v>1331.377835177124</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1331.377835177124</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>945.5895825788796</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>1717.512263598976</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="3">
@@ -4410,10 +4410,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
         <v>99.59950625323012</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>995.9506728057374</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="C5" t="n">
-        <v>995.9506728057374</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="D5" t="n">
-        <v>995.9506728057374</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>995.9506728057374</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
         <v>952.5674858910851</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4598,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y5" t="n">
-        <v>995.9506728057374</v>
+        <v>1992.620445413572</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4656,19 +4656,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>429.8456263007749</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>429.8456263007749</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1352.60098147425</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="C8" t="n">
-        <v>983.6384645338385</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="D8" t="n">
-        <v>625.3727659270879</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E8" t="n">
-        <v>625.3727659270879</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2065.831495465459</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>1734.768608121888</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545185</v>
+        <v>1381.999952851774</v>
       </c>
       <c r="X8" t="n">
-        <v>1352.60098147425</v>
+        <v>1008.534194590694</v>
       </c>
       <c r="Y8" t="n">
-        <v>1352.60098147425</v>
+        <v>618.3948626148824</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1662.48357412947</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C11" t="n">
-        <v>1662.48357412947</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D11" t="n">
-        <v>1662.48357412947</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733126</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y11" t="n">
-        <v>1662.48357412947</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="12">
@@ -5097,13 +5097,13 @@
         <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
         <v>359.3385232961344</v>
@@ -5118,25 +5118,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5221,28 +5221,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1662.48357412947</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C14" t="n">
-        <v>1662.48357412947</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D14" t="n">
-        <v>1662.48357412947</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E14" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W14" t="n">
-        <v>1662.48357412947</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X14" t="n">
-        <v>1662.48357412947</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y14" t="n">
-        <v>1662.48357412947</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="15">
@@ -5337,13 +5337,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5379,7 +5379,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
         <v>2488.762748073963</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>235.9284171545819</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C16" t="n">
-        <v>235.9284171545819</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D16" t="n">
-        <v>235.9284171545819</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E16" t="n">
-        <v>235.9284171545819</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F16" t="n">
-        <v>235.9284171545819</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G16" t="n">
-        <v>235.9284171545819</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5455,31 +5455,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>594.9795778313392</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="T16" t="n">
-        <v>336.2769833124028</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="U16" t="n">
-        <v>336.2769833124028</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="V16" t="n">
-        <v>336.2769833124028</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="W16" t="n">
-        <v>336.2769833124028</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="X16" t="n">
-        <v>336.2769833124028</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y16" t="n">
-        <v>336.2769833124028</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1345.623078162045</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>976.6605612216329</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>618.3948626148824</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E17" t="n">
-        <v>618.3948626148824</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F17" t="n">
-        <v>207.4089578252748</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>2014.892857925727</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>1732.222918226166</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5592,43 +5592,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5698,16 +5698,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
         <v>53.94298182036445</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>159.5099885583422</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C20" t="n">
-        <v>159.5099885583422</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="D20" t="n">
-        <v>159.5099885583422</v>
+        <v>853.5471299640549</v>
       </c>
       <c r="E20" t="n">
-        <v>159.5099885583422</v>
+        <v>853.5471299640549</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>442.5612251744473</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W20" t="n">
-        <v>1309.714918859356</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X20" t="n">
-        <v>936.2491605982757</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y20" t="n">
-        <v>546.109828622464</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="21">
@@ -5826,19 +5826,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2191.96288889382</v>
+        <v>325.6879402326645</v>
       </c>
       <c r="C22" t="n">
-        <v>2191.96288889382</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="D22" t="n">
-        <v>2191.96288889382</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="E22" t="n">
-        <v>2191.96288889382</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="F22" t="n">
-        <v>2191.96288889382</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R22" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S22" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T22" t="n">
-        <v>2412.755468037351</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U22" t="n">
-        <v>2412.755468037351</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V22" t="n">
-        <v>2412.755468037351</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W22" t="n">
-        <v>2412.755468037351</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X22" t="n">
-        <v>2412.755468037351</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y22" t="n">
-        <v>2191.96288889382</v>
+        <v>507.3364050629042</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>952.5674858910851</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C23" t="n">
-        <v>952.5674858910851</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="D23" t="n">
-        <v>952.5674858910851</v>
+        <v>1268.452009733665</v>
       </c>
       <c r="E23" t="n">
-        <v>952.5674858910851</v>
+        <v>882.6637571354211</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>471.6778523458135</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2498.934812870427</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2280.30014584249</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2026.538360480582</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>1695.475473137011</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W23" t="n">
-        <v>1342.706817866897</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X23" t="n">
-        <v>1342.706817866897</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y23" t="n">
-        <v>952.5674858910851</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="24">
@@ -6069,13 +6069,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W25" t="n">
-        <v>438.7118141694736</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X25" t="n">
-        <v>274.7355609638946</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1995.909162857192</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C26" t="n">
-        <v>1626.94664591678</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6242,34 +6242,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X26" t="n">
-        <v>2697.149091018223</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="Y26" t="n">
-        <v>2382.509002921313</v>
+        <v>1108.365917331524</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6391,43 +6391,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>500.8207968750361</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="U28" t="n">
-        <v>211.647186529604</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036446</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036446</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>710.5896835661124</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1954.141365880777</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C29" t="n">
-        <v>1954.141365880777</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D29" t="n">
-        <v>1595.875667274027</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E29" t="n">
-        <v>1210.087414675782</v>
+        <v>802.8902095122144</v>
       </c>
       <c r="F29" t="n">
-        <v>799.1015098861748</v>
+        <v>391.9043047226068</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>2147.505845071313</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>1954.141365880777</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
         <v>309.190302261463</v>
@@ -6552,31 +6552,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6628,43 +6628,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064343</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064343</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6722,19 +6722,19 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2615.207670282225</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U32" t="n">
-        <v>2615.207670282225</v>
+        <v>2262.439015012111</v>
       </c>
       <c r="V32" t="n">
-        <v>2284.144782938654</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="W32" t="n">
         <v>1931.37612766854</v>
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036469</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.1903022614632</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
         <v>2188.831293537797</v>
@@ -6822,7 +6822,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>2294.708047044453</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="D34" t="n">
         <v>2022.963088632153</v>
@@ -6889,19 +6889,19 @@
         <v>2697.149091018223</v>
       </c>
       <c r="U34" t="n">
-        <v>2407.975480672791</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V34" t="n">
-        <v>2312.380258669114</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>2476.356511874693</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1194.175505447095</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C35" t="n">
-        <v>825.2129885066836</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="D35" t="n">
-        <v>466.9472898999331</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E35" t="n">
-        <v>81.15903730168884</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036446</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6956,31 +6956,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2344.380435748109</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>1970.914677487029</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y35" t="n">
-        <v>1580.775345511217</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6990,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>240.076361604524</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>82.32798903705412</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2567.064746875001</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>2312.380258669114</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>863.1126181035247</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C38" t="n">
-        <v>863.1126181035247</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D38" t="n">
-        <v>504.8469194967742</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E38" t="n">
-        <v>119.05866689853</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7193,31 +7193,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W38" t="n">
-        <v>2013.317548404538</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X38" t="n">
-        <v>1639.851790143458</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y38" t="n">
-        <v>1249.712458167646</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7248,7 +7248,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7272,22 +7272,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V40" t="n">
-        <v>473.4444960005475</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W40" t="n">
-        <v>281.9325327183818</v>
+        <v>2471.7452186737</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.94416071721</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776798</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D41" t="n">
-        <v>819.7159451700475</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E41" t="n">
-        <v>433.9276925718032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>433.9276925718032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7427,34 +7427,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018223</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7500,13 +7500,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>546.4805193761946</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C43" t="n">
-        <v>377.5443364482877</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D43" t="n">
-        <v>359.2716929833838</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="E43" t="n">
-        <v>359.2716929833838</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="F43" t="n">
-        <v>359.2716929833838</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="G43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7576,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064343</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1540.921096014692</v>
+        <v>920.5121489496507</v>
       </c>
       <c r="C44" t="n">
-        <v>1171.958579074281</v>
+        <v>551.5496320092391</v>
       </c>
       <c r="D44" t="n">
-        <v>813.6928804675301</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E44" t="n">
-        <v>813.6928804675301</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>402.7069756779226</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2478.514423990286</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.752638628377</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V44" t="n">
-        <v>1893.689751284806</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W44" t="n">
-        <v>1540.921096014692</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X44" t="n">
-        <v>1540.921096014692</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y44" t="n">
-        <v>1540.921096014692</v>
+        <v>1307.111989013772</v>
       </c>
     </row>
     <row r="45">
@@ -7701,67 +7701,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>2066.718496146435</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>2066.718496146435</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>2066.718496146435</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>2066.718496146435</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>2066.718496146435</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W46" t="n">
-        <v>438.7118141694737</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X46" t="n">
-        <v>210.7222632714564</v>
+        <v>2469.159540120205</v>
       </c>
       <c r="Y46" t="n">
-        <v>210.7222632714564</v>
+        <v>2248.366960976675</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,10 +10437,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,7 +10665,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627456</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11376,7 +11376,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>365.7336492968545</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>218.8388043680907</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,19 +22592,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22708,22 +22708,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>110.2171262328013</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -22787,13 +22787,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.8370275073945</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>363.9266906962056</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22838,19 +22838,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22948,22 +22948,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,10 +22984,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -22999,13 +22999,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>132.6250609322975</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23021,19 +23021,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -23069,13 +23069,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>71.56218365249455</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23084,10 +23084,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>237.7725898582436</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23191,16 +23191,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,16 +23224,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>11.99007165458437</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>85.98948845797264</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,19 +23303,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,22 +23422,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23458,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>202.6835682680297</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>85.98948845797264</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>27.53450764830093</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80.48689968569461</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>14.84727966881377</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23738,19 +23738,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>37.59930637687103</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23786,7 +23786,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>106.3946983534883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23938,19 +23938,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,22 +23966,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>302.3647090711135</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>29.05210910025301</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,19 +24014,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.52911452950175</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24172,13 +24172,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>90.15061068717881</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>324.1494209649576</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24251,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>32.66198001746619</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24421,16 +24421,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>63.37316471551392</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,16 +24449,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>170.3955891659157</v>
       </c>
       <c r="Y26" t="n">
-        <v>74.7442514401132</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24607,22 +24607,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24652,13 +24652,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>207.6711978241657</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>96.01048066168084</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24692,10 +24692,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>79.20246034757503</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24728,7 +24728,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>194.8071042574229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>82.85718120047552</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="32">
@@ -24962,22 +24962,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>135.32631382902</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>91.78791519470795</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866354</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25129,19 +25129,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>157.4983735401882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,25 +25154,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>185.3254486783245</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>379.9321508152003</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25214,10 +25214,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>106.8644646478155</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25366,13 +25366,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,16 +25391,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>260.7615551004096</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>342.4115175143276</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -25436,16 +25436,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25606,16 +25606,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>96.92615468724702</v>
+        <v>63.37316471551387</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>229.2066580650391</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,13 +25634,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>37.59930637687069</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>130.5255559879575</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.52911452950187</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
         <v>45.199959188537</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>268.9285036754085</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>68.50781610181252</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25919,19 +25919,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.62049154535632</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>123.9919488199117</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26083,13 +26083,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>772770.7936813894</v>
+        <v>772770.7936813893</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772770.7936813894</v>
+        <v>772770.7936813893</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>772770.7936813894</v>
+        <v>772770.7936813893</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813894</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813894</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813892</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26314,16 @@
         <v>274694.9795149697</v>
       </c>
       <c r="C2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="D2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="E2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="F2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="G2" t="n">
         <v>274694.9795149697</v>
@@ -26332,28 +26332,28 @@
         <v>274694.9795149697</v>
       </c>
       <c r="I2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="J2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="K2" t="n">
+        <v>274694.9795149695</v>
+      </c>
+      <c r="L2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="M2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="N2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="O2" t="n">
         <v>274694.9795149698</v>
       </c>
-      <c r="J2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="K2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="L2" t="n">
-        <v>274694.9795149695</v>
-      </c>
-      <c r="M2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="N2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="O2" t="n">
-        <v>274694.9795149697</v>
-      </c>
       <c r="P2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149696</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="C4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="D4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="G4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="H4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="I4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="J4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="K4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="O4" t="n">
-        <v>35033.22103745195</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>35033.22103745196</v>
+        <v>35944.74664026682</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26485,31 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-433165.1988004361</v>
+        <v>-434076.724403251</v>
       </c>
       <c r="C6" t="n">
-        <v>156802.6804141084</v>
+        <v>155891.1548112935</v>
       </c>
       <c r="D6" t="n">
-        <v>156802.6804141083</v>
+        <v>155891.1548112935</v>
       </c>
       <c r="E6" t="n">
-        <v>190430.2804141084</v>
+        <v>189518.7548112935</v>
       </c>
       <c r="F6" t="n">
-        <v>190430.2804141084</v>
+        <v>189518.7548112933</v>
       </c>
       <c r="G6" t="n">
-        <v>190430.2804141083</v>
+        <v>189518.7548112934</v>
       </c>
       <c r="H6" t="n">
-        <v>190430.2804141084</v>
+        <v>189518.7548112934</v>
       </c>
       <c r="I6" t="n">
-        <v>190430.2804141084</v>
+        <v>189518.7548112934</v>
       </c>
       <c r="J6" t="n">
-        <v>14007.06122151534</v>
+        <v>13095.53561870063</v>
       </c>
       <c r="K6" t="n">
-        <v>190430.2804141084</v>
+        <v>189518.7548112932</v>
       </c>
       <c r="L6" t="n">
-        <v>190430.280414108</v>
+        <v>189518.7548112936</v>
       </c>
       <c r="M6" t="n">
-        <v>190430.2804141083</v>
+        <v>189518.7548112936</v>
       </c>
       <c r="N6" t="n">
-        <v>190430.2804141084</v>
+        <v>189518.7548112934</v>
       </c>
       <c r="O6" t="n">
-        <v>190430.2804141083</v>
+        <v>189518.7548112935</v>
       </c>
       <c r="P6" t="n">
-        <v>190430.2804141083</v>
+        <v>189518.7548112933</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26805,31 +26805,31 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,13 +31750,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31774,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31862,16 +31862,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31932,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31947,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -34778,13 +34778,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35413,7 +35413,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
         <v>485.8144648060965</v>
@@ -35422,10 +35422,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35501,13 +35501,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35975,13 +35975,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36209,7 +36209,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36437,7 +36437,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36446,7 +36446,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36692,7 +36692,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343422</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
         <v>421.5361394435301</v>
@@ -36920,7 +36920,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,10 +37157,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37324,7 +37324,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37403,7 +37403,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37561,7 +37561,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37792,7 +37792,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530455</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
         <v>308.9376163116798</v>
@@ -37868,7 +37868,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
         <v>485.8144648060965</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38114,7 +38114,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>821384.0253129122</v>
+        <v>850872.3263275627</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564204</v>
+        <v>236428.3313983641</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728805</v>
+        <v>9662474.503279347</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8935643.683630291</v>
+        <v>8648257.187411843</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>146.4340874029168</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>38.19053515138887</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554007</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>64.2960175975285</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>240.8460141132884</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>287.7032176102375</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755673</v>
+        <v>18.37682225755684</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1075,7 +1077,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>114.4975609277529</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>179.6619838557947</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,7 +1226,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
         <v>104.3883541553076</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>134.6751203255735</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.1271626621472</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>61.4954412004503</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1458,7 +1460,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>136.5310119231965</v>
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1534,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>99.34508049624304</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>63.79871444074352</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>26.94389492651078</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1777,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>131.8179123113441</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>376.184863643924</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>123.2755971265068</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>12.84584032841726</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,10 +2061,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>384.732060920542</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>122.5915982230236</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,28 +2241,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>101.7806877295492</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.889868597913</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>89.63474905583735</v>
+        <v>355.546756558266</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>128.7835007017899</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>45.53661789137295</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>199.3355115125533</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2719,22 +2721,22 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2764,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>17.36390763391859</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2798,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>334.58170967322</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>175.4681753671757</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>162.336490673523</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>155.2114886365809</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3074,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>159.4362523135813</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>101.7806877295488</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>169.3575929423584</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>101.5627341327607</v>
       </c>
       <c r="I37" t="n">
-        <v>28.10115714452277</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3503,13 +3505,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>104.5113366705979</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3548,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>223.1498336210771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2114886365804</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>153.5271835984415</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3958,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3980,13 +3982,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>85.75453794527442</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>354.3958624239608</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>43.31785343913925</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>230.2634979541055</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2255.520561484594</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y2" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>704.403429694748</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>469.2513214630052</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>469.2513214630052</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>404.3058491422694</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>196.5455503773155</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1992.620445413572</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>1992.620445413572</v>
+        <v>825.2129885066836</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>825.2129885066836</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>825.2129885066836</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>825.2129885066836</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4562,16 +4564,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.620445413572</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.620445413572</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4689,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="E7" t="n">
         <v>709.5665374816297</v>
@@ -4720,10 +4722,10 @@
         <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,7 +4734,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4743,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>618.3948626148824</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="C8" t="n">
-        <v>618.3948626148824</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D8" t="n">
-        <v>618.3948626148824</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E8" t="n">
-        <v>618.3948626148824</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F8" t="n">
-        <v>207.4089578252748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4799,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2526.466299601491</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2307.831632573554</v>
       </c>
       <c r="U8" t="n">
-        <v>2065.831495465459</v>
+        <v>2054.069847211645</v>
       </c>
       <c r="V8" t="n">
-        <v>1734.768608121888</v>
+        <v>1723.006959868074</v>
       </c>
       <c r="W8" t="n">
-        <v>1381.999952851774</v>
+        <v>1370.23830459796</v>
       </c>
       <c r="X8" t="n">
-        <v>1008.534194590694</v>
+        <v>1370.23830459796</v>
       </c>
       <c r="Y8" t="n">
-        <v>618.3948626148824</v>
+        <v>1370.23830459796</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,46 +4880,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>562.6765899837193</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>562.6765899837193</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1920.409918978289</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C11" t="n">
-        <v>1551.447402037877</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D11" t="n">
-        <v>1193.181703431127</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E11" t="n">
-        <v>807.3934508328825</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>396.407546043275</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5042,16 +5044,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2580.003794275533</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2361.369127247596</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y11" t="n">
-        <v>2307.009759042411</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="12">
@@ -5100,13 +5102,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816298</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837194</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220518</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1166.959449965771</v>
+        <v>2001.758776122685</v>
       </c>
       <c r="C14" t="n">
-        <v>797.9969330253591</v>
+        <v>1632.796259182274</v>
       </c>
       <c r="D14" t="n">
-        <v>439.7312344186087</v>
+        <v>1274.530560575523</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>1274.530560575523</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>863.5446557859157</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>445.5808476841025</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>118.3861277201054</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2669.933035536898</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2669.933035536898</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2669.933035536898</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2669.933035536898</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V14" t="n">
-        <v>2669.933035536898</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W14" t="n">
-        <v>2317.164380266784</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X14" t="n">
-        <v>1943.698622005704</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y14" t="n">
-        <v>1553.559290029893</v>
+        <v>2388.358616186807</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5364,34 +5366,34 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>380.6911546495019</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C16" t="n">
-        <v>380.6911546495019</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D16" t="n">
-        <v>380.6911546495019</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E16" t="n">
-        <v>380.6911546495019</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F16" t="n">
-        <v>380.6911546495019</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G16" t="n">
-        <v>211.6913543878343</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R16" t="n">
-        <v>594.9795778313392</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S16" t="n">
-        <v>380.6911546495019</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T16" t="n">
-        <v>380.6911546495019</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U16" t="n">
-        <v>380.6911546495019</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V16" t="n">
-        <v>380.6911546495019</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W16" t="n">
-        <v>380.6911546495019</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X16" t="n">
-        <v>380.6911546495019</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y16" t="n">
-        <v>380.6911546495019</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776797</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D17" t="n">
-        <v>819.715945170047</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E17" t="n">
-        <v>433.9276925718028</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F17" t="n">
-        <v>433.9276925718028</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5513,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5546,19 +5548,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2572.628285839933</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2241.565398496362</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>1888.796743226248</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757143</v>
+        <v>1515.330984965168</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.544000781331</v>
+        <v>1125.191652989356</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5607,28 +5609,28 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>66.91857811169501</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5698,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610022</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1580.775345511217</v>
+        <v>1701.775251950352</v>
       </c>
       <c r="C20" t="n">
-        <v>1211.812828570805</v>
+        <v>1332.81273500994</v>
       </c>
       <c r="D20" t="n">
-        <v>853.5471299640549</v>
+        <v>974.5470364031896</v>
       </c>
       <c r="E20" t="n">
-        <v>853.5471299640549</v>
+        <v>588.7587838049453</v>
       </c>
       <c r="F20" t="n">
-        <v>442.5612251744473</v>
+        <v>177.7728790153378</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>177.7728790153378</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>177.7728790153378</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.380435748109</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X20" t="n">
-        <v>1970.914677487029</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y20" t="n">
-        <v>1580.775345511217</v>
+        <v>2088.375092014473</v>
       </c>
     </row>
     <row r="21">
@@ -5826,16 +5828,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
         <v>1194.968834417902</v>
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>325.6879402326645</v>
+        <v>517.0636002298164</v>
       </c>
       <c r="C22" t="n">
-        <v>156.7517573047575</v>
+        <v>517.0636002298164</v>
       </c>
       <c r="D22" t="n">
-        <v>156.7517573047575</v>
+        <v>517.0636002298164</v>
       </c>
       <c r="E22" t="n">
-        <v>156.7517573047575</v>
+        <v>369.1505066474233</v>
       </c>
       <c r="F22" t="n">
-        <v>156.7517573047575</v>
+        <v>369.1505066474233</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>369.1505066474233</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5917,43 +5919,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y22" t="n">
-        <v>507.3364050629042</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1626.717708340416</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C23" t="n">
-        <v>1626.717708340416</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.452009733665</v>
+        <v>1209.855277145859</v>
       </c>
       <c r="E23" t="n">
-        <v>882.6637571354211</v>
+        <v>824.0670245476144</v>
       </c>
       <c r="F23" t="n">
-        <v>471.6778523458135</v>
+        <v>413.0811197580069</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5987,10 +5989,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
         <v>881.2824271224075</v>
@@ -6023,16 +6025,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2013.317548404538</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>2013.317548404538</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>2013.317548404538</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="24">
@@ -6078,13 +6080,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>2442.464602812336</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>2153.047432775375</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1108.365917331524</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C26" t="n">
-        <v>739.4034003911122</v>
+        <v>869.1911689453821</v>
       </c>
       <c r="D26" t="n">
-        <v>381.1377017843616</v>
+        <v>510.9254703386316</v>
       </c>
       <c r="E26" t="n">
-        <v>381.1377017843616</v>
+        <v>510.9254703386316</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>99.939565549024</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>99.939565549024</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6227,16 +6229,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6251,25 +6253,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X26" t="n">
-        <v>1108.365917331524</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y26" t="n">
-        <v>1108.365917331524</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>710.5896835661124</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>710.5896835661124</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>710.5896835661124</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>562.6765899837193</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>562.6765899837193</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>393.6767897220517</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>235.9284171545819</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>710.5896835661124</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U28" t="n">
-        <v>710.5896835661124</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V28" t="n">
-        <v>710.5896835661124</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W28" t="n">
-        <v>710.5896835661124</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X28" t="n">
-        <v>710.5896835661124</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y28" t="n">
-        <v>710.5896835661124</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="C29" t="n">
-        <v>1546.944160717209</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D29" t="n">
-        <v>1188.678462110459</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E29" t="n">
-        <v>802.8902095122144</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F29" t="n">
-        <v>391.9043047226068</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6461,10 +6463,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224075</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2246.245153341813</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>1915.182265998242</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>1562.413610728128</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1188.947852467049</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>798.8085204912368</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6543,40 +6545,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>2186.939341837732</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W31" t="n">
-        <v>438.7118141694736</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X31" t="n">
-        <v>210.7222632714563</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>2186.939341837732</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>781.1711973675267</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C32" t="n">
-        <v>412.208680427115</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D32" t="n">
-        <v>53.94298182036446</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520779</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="U32" t="n">
-        <v>2262.439015012111</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="V32" t="n">
-        <v>1931.37612766854</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W32" t="n">
-        <v>1931.37612766854</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X32" t="n">
-        <v>1557.91036940746</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y32" t="n">
-        <v>1167.771037431648</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2294.708047044453</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>2125.771864116546</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018223</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018223</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>2476.356511874693</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1920.409918978289</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C35" t="n">
-        <v>1920.409918978289</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D35" t="n">
-        <v>1749.341643278937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E35" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6962,25 +6964,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X35" t="n">
-        <v>2697.149091018222</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y35" t="n">
-        <v>2307.009759042411</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="36">
@@ -6996,43 +6998,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064342</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="C37" t="n">
-        <v>559.1928012785273</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="D37" t="n">
-        <v>409.0761618661916</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="E37" t="n">
-        <v>409.0761618661916</v>
+        <v>2294.551509229942</v>
       </c>
       <c r="F37" t="n">
-        <v>409.0761618661916</v>
+        <v>2294.551509229942</v>
       </c>
       <c r="G37" t="n">
-        <v>240.076361604524</v>
+        <v>2125.551708968275</v>
       </c>
       <c r="H37" t="n">
-        <v>82.32798903705412</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>2442.464602812336</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>159.5099885583422</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C38" t="n">
-        <v>53.94298182036445</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D38" t="n">
-        <v>53.94298182036445</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E38" t="n">
         <v>53.94298182036445</v>
@@ -7172,19 +7174,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859356</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X38" t="n">
-        <v>936.2491605982757</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y38" t="n">
-        <v>546.109828622464</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7251,43 +7253,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7369,10 +7371,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W40" t="n">
-        <v>2471.7452186737</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X40" t="n">
-        <v>2243.755667775683</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y40" t="n">
         <v>2022.963088632153</v>
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>781.1711973675267</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C41" t="n">
-        <v>412.2086804271149</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D41" t="n">
-        <v>53.94298182036445</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036445</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7409,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7433,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>936.2491605982757</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>936.2491605982757</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7500,13 +7502,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7606,13 +7608,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y43" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>920.5121489496507</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C44" t="n">
-        <v>551.5496320092391</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D44" t="n">
-        <v>464.928886609972</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F44" t="n">
         <v>53.94298182036445</v>
@@ -7646,19 +7648,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7676,22 +7678,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2070.717079250664</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X44" t="n">
-        <v>1697.251320989584</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y44" t="n">
-        <v>1307.111989013772</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="45">
@@ -7701,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2066.718496146435</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C46" t="n">
-        <v>2066.718496146435</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D46" t="n">
-        <v>2066.718496146435</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E46" t="n">
-        <v>2066.718496146435</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F46" t="n">
-        <v>2066.718496146435</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G46" t="n">
         <v>2022.963088632153</v>
@@ -7831,25 +7833,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V46" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W46" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X46" t="n">
-        <v>2469.159540120205</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y46" t="n">
-        <v>2248.366960976675</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>349.7270020469158</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,10 +8546,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9255,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10193,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>218.8388043680907</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>299.842411742912</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22686,10 +22688,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>141.476967605949</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22711,25 +22713,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>52.54455953715794</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>113.8370275073945</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>126.0809524105575</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22841,16 +22843,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22948,7 +22950,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890124</v>
+        <v>128.0571403890123</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22984,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -23018,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -23069,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>59.91815188121859</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>71.56218365249455</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23084,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23191,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>11.99007165458437</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>112.9202716085212</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23422,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>56.8258083455521</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23458,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>88.13260180411774</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>27.53450764830093</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23549,19 +23551,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>125.6900249618412</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>14.84727966881377</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,10 +23746,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>37.59930637687103</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23786,13 +23788,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>127.9485703817825</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>122.119781463921</v>
       </c>
       <c r="J19" t="n">
         <v>45.199959188537</v>
@@ -23938,7 +23940,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23947,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>29.05210910025301</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>29.33971802183768</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24022,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -24029,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24127,28 +24129,28 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.52911452950175</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>24.28102024388212</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>324.1494209649576</v>
+        <v>58.23741346252899</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24263,13 +24265,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>123.9919488199112</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24421,16 +24423,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>96.92615468724728</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24452,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>278.3861548729842</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>170.3955891659157</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24607,22 +24609,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24652,19 +24654,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6711978241657</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24686,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>79.20246034757503</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>75.75599214111358</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>4.910330425104831</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>63.37316471551392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24923,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24962,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>27.53450764830093</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>91.78791519470795</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>46.83478528866354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25129,19 +25131,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>185.3254486783245</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>93.29370628033419</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -25211,13 +25213,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>54.60815470903442</v>
       </c>
       <c r="I37" t="n">
-        <v>106.8644646478155</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25369,7 +25371,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25391,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>260.7615551004096</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25436,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>300.8083635436241</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>63.37316471551387</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>63.37316471551443</v>
       </c>
     </row>
     <row r="41">
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.2066580650391</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.52911452950187</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25846,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>268.9285036754085</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>27.53450764830103</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -25916,7 +25918,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>123.9919488199117</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26071,13 +26073,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>56.01837628787223</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>772770.7936813893</v>
+        <v>485384.2974629396</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813894</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813894</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813894</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772770.7936813894</v>
+        <v>772770.7936813893</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>772770.7936813894</v>
+        <v>772770.7936813893</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772770.7936813892</v>
+        <v>772770.7936813894</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149697</v>
+        <v>168322.7414503684</v>
       </c>
       <c r="C2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="D2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="E2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="F2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="G2" t="n">
         <v>274694.9795149697</v>
@@ -26332,28 +26334,28 @@
         <v>274694.9795149697</v>
       </c>
       <c r="I2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="J2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="J2" t="n">
-        <v>274694.9795149699</v>
-      </c>
       <c r="K2" t="n">
-        <v>274694.9795149695</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="L2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="M2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="N2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="O2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="O2" t="n">
-        <v>274694.9795149698</v>
-      </c>
       <c r="P2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>440708.0835147458</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>72254.69487113909</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>102466.1171957467</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35944.74664026682</v>
+        <v>33777.16046143054</v>
       </c>
       <c r="C4" t="n">
         <v>35944.74664026682</v>
@@ -26433,7 +26435,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="H4" t="n">
-        <v>35944.74664026683</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="I4" t="n">
         <v>35944.74664026682</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26485,7 +26487,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26497,7 +26499,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-434076.724403251</v>
+        <v>-42929.13997465521</v>
       </c>
       <c r="C6" t="n">
-        <v>155891.1548112935</v>
+        <v>-284816.9287034522</v>
       </c>
       <c r="D6" t="n">
-        <v>155891.1548112935</v>
+        <v>155891.1548112936</v>
       </c>
       <c r="E6" t="n">
         <v>189518.7548112935</v>
       </c>
       <c r="F6" t="n">
-        <v>189518.7548112933</v>
+        <v>189518.7548112935</v>
       </c>
       <c r="G6" t="n">
         <v>189518.7548112934</v>
@@ -26540,28 +26542,28 @@
         <v>189518.7548112934</v>
       </c>
       <c r="I6" t="n">
+        <v>189518.7548112933</v>
+      </c>
+      <c r="J6" t="n">
+        <v>117264.0599401543</v>
+      </c>
+      <c r="K6" t="n">
+        <v>87052.63761554677</v>
+      </c>
+      <c r="L6" t="n">
+        <v>189518.7548112933</v>
+      </c>
+      <c r="M6" t="n">
+        <v>189518.7548112933</v>
+      </c>
+      <c r="N6" t="n">
+        <v>189518.7548112933</v>
+      </c>
+      <c r="O6" t="n">
         <v>189518.7548112934</v>
       </c>
-      <c r="J6" t="n">
-        <v>13095.53561870063</v>
-      </c>
-      <c r="K6" t="n">
-        <v>189518.7548112932</v>
-      </c>
-      <c r="L6" t="n">
-        <v>189518.7548112936</v>
-      </c>
-      <c r="M6" t="n">
-        <v>189518.7548112936</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>189518.7548112934</v>
-      </c>
-      <c r="O6" t="n">
-        <v>189518.7548112935</v>
-      </c>
-      <c r="P6" t="n">
-        <v>189518.7548112933</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26805,7 +26807,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26817,7 +26819,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>342.7224034979615</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>398.1307590522003</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>398.1307590522003</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>398.1307590522003</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,7 +31284,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31357,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31399,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,22 +31934,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31993,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>237.9770422219166</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35732,19 +35734,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35975,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338902</v>
@@ -36446,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36455,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36692,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37160,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37312,7 +37314,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N35" t="n">
         <v>478.8956552492236</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37868,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37877,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
@@ -38114,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
